--- a/Visualization/results/enhanced_state_analysis/enhanced_neuron_states_analysis.xlsx
+++ b/Visualization/results/enhanced_state_analysis/enhanced_neuron_states_analysis.xlsx
@@ -465,16 +465,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -565,16 +565,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -745,16 +745,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>State 6</t>
+          <t>State 2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>低频随机活动状态</t>
+          <t>规律性脉冲放电状态</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>State 5</t>
+          <t>State 3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>高频密集放电状态</t>
+          <t>间歇性突发状态</t>
         </is>
       </c>
     </row>
@@ -825,16 +825,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>State 6</t>
+          <t>State 2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>低频随机活动状态</t>
+          <t>规律性脉冲放电状态</t>
         </is>
       </c>
     </row>
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>State 6</t>
+          <t>State 2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>低频随机活动状态</t>
+          <t>规律性脉冲放电状态</t>
         </is>
       </c>
     </row>
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>State 5</t>
+          <t>State 3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>高频密集放电状态</t>
+          <t>间歇性突发状态</t>
         </is>
       </c>
     </row>
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>State 5</t>
+          <t>State 3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>高频密集放电状态</t>
+          <t>间歇性突发状态</t>
         </is>
       </c>
     </row>
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>State 4</t>
+          <t>State 1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>不规律波动状态</t>
+          <t>高频连续振荡状态</t>
         </is>
       </c>
     </row>
@@ -1105,16 +1105,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>State 4</t>
+          <t>State 1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>不规律波动状态</t>
+          <t>高频连续振荡状态</t>
         </is>
       </c>
     </row>
@@ -1125,16 +1125,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -1145,16 +1145,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>State 4</t>
+          <t>State 3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>不规律波动状态</t>
+          <t>间歇性突发状态</t>
         </is>
       </c>
     </row>
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>State 6</t>
+          <t>State 2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>低频随机活动状态</t>
+          <t>规律性脉冲放电状态</t>
         </is>
       </c>
     </row>
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>State 3</t>
+          <t>State 4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>间歇性突发状态</t>
+          <t>不规律波动状态</t>
         </is>
       </c>
     </row>
@@ -1225,16 +1225,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>State 4</t>
+          <t>State 3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>不规律波动状态</t>
+          <t>间歇性突发状态</t>
         </is>
       </c>
     </row>
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>State 5</t>
+          <t>State 3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>高频密集放电状态</t>
+          <t>间歇性突发状态</t>
         </is>
       </c>
     </row>
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>State 4</t>
+          <t>State 3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>不规律波动状态</t>
+          <t>间歇性突发状态</t>
         </is>
       </c>
     </row>
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>State 4</t>
+          <t>State 1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>不规律波动状态</t>
+          <t>高频连续振荡状态</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1386,27 +1386,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>State 5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>State 6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1851,7 @@
         </is>
       </c>
       <c r="BC2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2040,7 +2020,7 @@
         </is>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2209,7 +2189,7 @@
         </is>
       </c>
       <c r="BC4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2378,7 +2358,7 @@
         </is>
       </c>
       <c r="BC5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2547,7 +2527,7 @@
         </is>
       </c>
       <c r="BC6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2716,7 +2696,7 @@
         </is>
       </c>
       <c r="BC7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2885,7 +2865,7 @@
         </is>
       </c>
       <c r="BC8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3223,7 +3203,7 @@
         </is>
       </c>
       <c r="BC10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3561,7 +3541,7 @@
         </is>
       </c>
       <c r="BC12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3730,7 +3710,7 @@
         </is>
       </c>
       <c r="BC13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -4237,7 +4217,7 @@
         </is>
       </c>
       <c r="BC16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -4406,7 +4386,7 @@
         </is>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4575,7 +4555,7 @@
         </is>
       </c>
       <c r="BC18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4913,7 +4893,7 @@
         </is>
       </c>
       <c r="BC20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -5082,7 +5062,7 @@
         </is>
       </c>
       <c r="BC21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -5251,7 +5231,7 @@
         </is>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -5420,7 +5400,7 @@
         </is>
       </c>
       <c r="BC23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -5758,7 +5738,7 @@
         </is>
       </c>
       <c r="BC25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -5927,7 +5907,7 @@
         </is>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -6265,7 +6245,7 @@
         </is>
       </c>
       <c r="BC28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -6603,7 +6583,7 @@
         </is>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -6772,7 +6752,7 @@
         </is>
       </c>
       <c r="BC31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -7110,7 +7090,7 @@
         </is>
       </c>
       <c r="BC33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7279,7 +7259,7 @@
         </is>
       </c>
       <c r="BC34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7448,7 +7428,7 @@
         </is>
       </c>
       <c r="BC35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -7617,7 +7597,7 @@
         </is>
       </c>
       <c r="BC36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -7786,7 +7766,7 @@
         </is>
       </c>
       <c r="BC37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -7955,7 +7935,7 @@
         </is>
       </c>
       <c r="BC38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -8293,7 +8273,7 @@
         </is>
       </c>
       <c r="BC40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -8462,7 +8442,7 @@
         </is>
       </c>
       <c r="BC41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -8631,7 +8611,7 @@
         </is>
       </c>
       <c r="BC42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -8800,7 +8780,7 @@
         </is>
       </c>
       <c r="BC43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9006,51 +8986,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kurtosis</t>
+          <t>sample_entropy</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04917353999217166</v>
+        <v>0.08175110296991168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sample_entropy</t>
+          <t>kurtosis</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.046977520386846</v>
+        <v>0.07947028105641403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ps_surface_area</t>
+          <t>zero_crossing_rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03969903436518294</v>
+        <v>0.05918913765489652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>skewness</t>
+          <t>graph_first_diff_std</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03806679625076597</v>
+        <v>0.05638357239100283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>spectral_centroid</t>
+          <t>skewness</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03617447533021832</v>
+        <v>0.04616388638389551</v>
       </c>
     </row>
     <row r="7">
@@ -9060,337 +9040,337 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03424954478774237</v>
+        <v>0.04403600621250869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>range_value</t>
+          <t>regularity_index</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03414666751830359</v>
+        <v>0.03958759207384972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>zero_crossing_rate</t>
+          <t>activity_rate</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03343054002816595</v>
+        <v>0.03500762899460912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>silence_periods</t>
+          <t>ps_trajectory_length</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03302361693696602</v>
+        <v>0.0336211158285774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>regularity_index</t>
+          <t>mid_freq_power</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03196025116187792</v>
+        <v>0.03255078079341075</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hurst_exponent</t>
+          <t>peak_count</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03086197476611073</v>
+        <v>0.03171336067601706</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>graph_max_node_value</t>
+          <t>lyapunov_exponent</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02997439655024493</v>
+        <v>0.02817610502921764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mid_freq_power</t>
+          <t>graph_second_diff_std</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02988549370391708</v>
+        <v>0.0280464729212783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>peak_amplitude_std</t>
+          <t>peak_amplitude_mean</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02759391397698387</v>
+        <v>0.02752495443458861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>graph_first_diff_std</t>
+          <t>graph_max_node_value</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02735149343563553</v>
+        <v>0.0265520495210557</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>graph_second_diff_std</t>
+          <t>silence_periods</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02685417474888508</v>
+        <v>0.02514455632909785</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lyapunov_exponent</t>
+          <t>range_value</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02667535479410043</v>
+        <v>0.02469230924183466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>peak_count</t>
+          <t>spectral_centroid</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02638758188851572</v>
+        <v>0.02124731113504257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>spectral_entropy</t>
+          <t>dfa_alpha</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02575603748544921</v>
+        <v>0.02114037367004747</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ps_volume</t>
+          <t>ps_surface_area</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02564665938941008</v>
+        <v>0.02017718794980671</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>activity_rate</t>
+          <t>burst_intensity_mean</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02535097946984784</v>
+        <v>0.01997043552080558</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>burst_intensity_mean</t>
+          <t>spectral_bandwidth</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02484679980158303</v>
+        <v>0.01947852251538786</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>peak_width_std</t>
+          <t>ps_volume</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02423610994328305</v>
+        <v>0.01918695096329752</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>peak_prominence_mean</t>
+          <t>graph_min_node_value</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02364553475473634</v>
+        <v>0.01800697769752327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>peak_amplitude_mean</t>
+          <t>hurst_exponent</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02314714185270148</v>
+        <v>0.01690427810391299</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ps_trajectory_length</t>
+          <t>decay_time_mean</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02236961815924947</v>
+        <v>0.01441069591294294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>peak_prominence_std</t>
+          <t>peak_amplitude_std</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02219504530284351</v>
+        <v>0.01326184114686067</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>peak_width_mean</t>
+          <t>burst_duration_mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02201541070714484</v>
+        <v>0.01178391785224395</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ps_max_distance</t>
+          <t>peak_width_std</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02033263451557486</v>
+        <v>0.01174791469457823</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>spectral_bandwidth</t>
+          <t>peak_prominence_mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01941048998962253</v>
+        <v>0.01152936484987487</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>burst_rate</t>
+          <t>peak_width_mean</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01910355910267825</v>
+        <v>0.01059865153998821</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>decay_time_mean</t>
+          <t>low_freq_power</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01771958202774729</v>
+        <v>0.009284250780151474</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>graph_min_node_value</t>
+          <t>ps_max_distance</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0152704002102378</v>
+        <v>0.00913464347693386</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>dfa_alpha</t>
+          <t>spectral_entropy</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01419613101856562</v>
+        <v>0.008445743922544598</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>inter_peak_interval_std</t>
+          <t>inter_peak_interval_mean</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008846861738295686</v>
+        <v>0.007710742196234278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>burst_duration_mean</t>
+          <t>rise_time_mean</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.008089538862780717</v>
+        <v>0.007363063403999577</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>graph_std_node_value</t>
+          <t>graph_mean_node_value</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007831674381116998</v>
+        <v>0.007314205252172044</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>rise_time_mean</t>
+          <t>graph_std_node_value</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007682081668375297</v>
+        <v>0.004999695362847547</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>low_freq_power</t>
+          <t>coefficient_variation</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.00714887292092275</v>
+        <v>0.004688734315536752</v>
       </c>
     </row>
     <row r="41">
@@ -9400,57 +9380,57 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.004425506977489691</v>
+        <v>0.004635048876088411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>graph_mean_node_value</t>
+          <t>burst_rate</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.003136399477463595</v>
+        <v>0.003855604720472775</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>inter_peak_interval_mean</t>
+          <t>peak_prominence_std</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.001944647461074081</v>
+        <v>0.002062774122807017</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>graph_first_diff_mean</t>
+          <t>inter_peak_interval_std</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001168276465481897</v>
+        <v>0.0008309178743961351</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>coefficient_variation</t>
+          <t>ps_lyapunov_estimate</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001153256704980843</v>
+        <v>0.0006192396313364055</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ps_lyapunov_estimate</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0008443789887088853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9496,7 +9476,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>fractal_dimension</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -9506,7 +9486,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>fractal_dimension</t>
+          <t>graph_num_windows</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -9526,7 +9506,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>graph_num_windows</t>
+          <t>graph_first_diff_mean</t>
         </is>
       </c>
       <c r="B54" t="n">
